--- a/week2/graph.xlsx
+++ b/week2/graph.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26124"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnlimjsj/GitHub/EE4207_ControlSystems/week2/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16005" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="openLoop" sheetId="2" r:id="rId2"/>
+    <sheet name="closedLoop" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$F$2:$O$9</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -29,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="37">
   <si>
     <t>key parameters:</t>
   </si>
@@ -129,6 +124,18 @@
   <si>
     <t>30KHz</t>
   </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>Theoretical Result</t>
+  </si>
+  <si>
+    <t>Experiment Result</t>
+  </si>
 </sst>
 </file>
 
@@ -222,7 +229,7 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.1</c:v>
@@ -243,13 +250,13 @@
                   <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.475</c:v>
+                  <c:v>0.47499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.525</c:v>
+                  <c:v>0.52500000000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.55</c:v>
+                  <c:v>0.55000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.6</c:v>
@@ -276,10 +283,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.09</c:v>
+                  <c:v>1.0900000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2.04</c:v>
@@ -303,7 +310,7 @@
                   <c:v>4.7</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.94</c:v>
+                  <c:v>4.9400000000000004</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>5.41</c:v>
@@ -333,11 +340,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2115149360"/>
-        <c:axId val="2117488960"/>
+        <c:axId val="74148096"/>
+        <c:axId val="74148672"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2115149360"/>
+        <c:axId val="74148096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -359,19 +366,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2117488960"/>
+        <c:crossAx val="74148672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2117488960"/>
+        <c:axId val="74148672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -394,21 +400,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2115149360"/>
+        <c:crossAx val="74148096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -485,26 +489,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -544,12 +528,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$E$15:$E$19</c:f>
+              <c:f>openLoop!$E$15:$E$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.8</c:v>
@@ -568,7 +552,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$F$15:$F$19</c:f>
+              <c:f>openLoop!$F$15:$F$19</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="5"/>
@@ -579,13 +563,13 @@
                   <c:v>0.63</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.58</c:v>
+                  <c:v>0.57999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.57</c:v>
+                  <c:v>0.56999999999999995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.55</c:v>
+                  <c:v>0.55000000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -624,12 +608,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$E$26:$E$30</c:f>
+              <c:f>openLoop!$E$26:$E$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.8</c:v>
@@ -648,12 +632,12 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$F$26:$F$30</c:f>
+              <c:f>openLoop!$F$26:$F$30</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.665</c:v>
+                  <c:v>0.66500000000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.66</c:v>
@@ -704,12 +688,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$E$4:$E$8</c:f>
+              <c:f>openLoop!$E$4:$E$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.8</c:v>
@@ -728,7 +712,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$F$4:$F$8</c:f>
+              <c:f>openLoop!$F$4:$F$8</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="5"/>
@@ -739,7 +723,7 @@
                   <c:v>0.65</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.57</c:v>
+                  <c:v>0.56999999999999995</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.52</c:v>
@@ -760,11 +744,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2145439840"/>
-        <c:axId val="-2129687232"/>
+        <c:axId val="74150400"/>
+        <c:axId val="74150976"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2145439840"/>
+        <c:axId val="74150400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -821,12 +805,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2129687232"/>
+        <c:crossAx val="74150976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2129687232"/>
+        <c:axId val="74150976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -883,7 +867,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2145439840"/>
+        <c:crossAx val="74150400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1026,26 +1010,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1085,12 +1049,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$E$15:$E$19</c:f>
+              <c:f>openLoop!$E$15:$E$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.8</c:v>
@@ -1109,7 +1073,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$G$15:$G$19</c:f>
+              <c:f>openLoop!$G$15:$G$19</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1126,7 +1090,7 @@
                   <c:v>2.98</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.3</c:v>
+                  <c:v>2.2999999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1165,12 +1129,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$E$26:$E$30</c:f>
+              <c:f>openLoop!$E$26:$E$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.8</c:v>
@@ -1189,15 +1153,15 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$G$26:$G$30</c:f>
+              <c:f>openLoop!$G$26:$G$30</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>4.98</c:v>
+                  <c:v>4.9800000000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3.4</c:v>
@@ -1206,7 +1170,7 @@
                   <c:v>3.02</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.45</c:v>
+                  <c:v>2.4500000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1245,12 +1209,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$E$4:$E$8</c:f>
+              <c:f>openLoop!$E$4:$E$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.8</c:v>
@@ -1269,7 +1233,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$G$4:$G$8</c:f>
+              <c:f>openLoop!$G$4:$G$8</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1301,11 +1265,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2079988944"/>
-        <c:axId val="-2076422944"/>
+        <c:axId val="74153280"/>
+        <c:axId val="74219520"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2079988944"/>
+        <c:axId val="74153280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1362,12 +1326,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2076422944"/>
+        <c:crossAx val="74219520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2076422944"/>
+        <c:axId val="74219520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1424,7 +1388,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2079988944"/>
+        <c:crossAx val="74153280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1567,26 +1531,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1626,12 +1570,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$C$15:$C$20</c:f>
+              <c:f>openLoop!$C$15:$C$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.2</c:v>
@@ -1646,19 +1590,19 @@
                   <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$D$15:$D$20</c:f>
+              <c:f>openLoop!$D$15:$D$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.079</c:v>
+                  <c:v>7.9000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2.09</c:v>
@@ -1712,12 +1656,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$C$26:$C$31</c:f>
+              <c:f>openLoop!$C$26:$C$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.2</c:v>
@@ -1732,14 +1676,14 @@
                   <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$D$26:$D$31</c:f>
+              <c:f>openLoop!$D$26:$D$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1798,12 +1742,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$C$4:$C$9</c:f>
+              <c:f>openLoop!$C$4:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.2</c:v>
@@ -1818,25 +1762,25 @@
                   <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$D$4:$D$9</c:f>
+              <c:f>openLoop!$D$4:$D$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.079</c:v>
+                  <c:v>7.9000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2.65</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.52</c:v>
+                  <c:v>4.5199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>5.78</c:v>
@@ -1860,11 +1804,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2079847840"/>
-        <c:axId val="-2080114544"/>
+        <c:axId val="74221824"/>
+        <c:axId val="74222400"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2079847840"/>
+        <c:axId val="74221824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1921,12 +1865,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2080114544"/>
+        <c:crossAx val="74222400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2080114544"/>
+        <c:axId val="74222400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1983,7 +1927,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2079847840"/>
+        <c:crossAx val="74221824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4159,15 +4103,15 @@
       <selection activeCell="K29" sqref="K29:L33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="9.5" customWidth="1"/>
-    <col min="8" max="8" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
@@ -4447,7 +4391,7 @@
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F12" t="s">
         <v>20</v>
       </c>
@@ -4676,7 +4620,7 @@
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <v>0.3</v>
       </c>
@@ -4925,7 +4869,7 @@
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
         <v>0.65</v>
       </c>
@@ -5133,7 +5077,7 @@
         <v>4.2709700000000002</v>
       </c>
     </row>
-    <row r="41" spans="6:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F41" t="s">
         <v>16</v>
       </c>
@@ -5144,56 +5088,56 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="6:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F42" s="1">
         <v>0.2</v>
       </c>
     </row>
-    <row r="43" spans="6:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F43" s="1">
         <v>0.4</v>
       </c>
     </row>
-    <row r="44" spans="6:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F44" s="1">
         <v>0.6</v>
       </c>
     </row>
-    <row r="45" spans="6:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F45" s="1">
         <v>0.8</v>
       </c>
     </row>
-    <row r="46" spans="6:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F46" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="6:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F47" s="1"/>
     </row>
-    <row r="48" spans="6:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F48" s="1"/>
     </row>
-    <row r="49" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F49" s="1"/>
     </row>
-    <row r="50" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F50" s="1"/>
     </row>
-    <row r="51" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F51" s="1"/>
     </row>
-    <row r="52" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F52" s="1"/>
     </row>
-    <row r="53" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F53" s="1"/>
     </row>
-    <row r="54" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F54" s="1"/>
     </row>
-    <row r="55" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F55" s="1"/>
     </row>
   </sheetData>
@@ -5216,13 +5160,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="T27" sqref="T27"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:10" x14ac:dyDescent="0.2">
@@ -5237,7 +5181,7 @@
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>27</v>
       </c>
@@ -5422,7 +5366,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>27</v>
       </c>
@@ -5462,11 +5406,11 @@
         <v>4.95</v>
       </c>
       <c r="I15">
-        <f>($D$20-D15)*0.632+D15</f>
+        <f t="shared" ref="I15:I20" si="2">($D$20-D15)*0.632+D15</f>
         <v>5.7044319999999997</v>
       </c>
       <c r="J15">
-        <f>$D$20 - ($D$20-D15)*0.632</f>
+        <f t="shared" ref="J15:J20" si="3">$D$20 - ($D$20-D15)*0.632</f>
         <v>3.3545680000000004</v>
       </c>
     </row>
@@ -5487,11 +5431,11 @@
         <v>3.95</v>
       </c>
       <c r="I16">
-        <f>($D$20-D16)*0.632+D16</f>
+        <f t="shared" si="2"/>
         <v>6.4444800000000004</v>
       </c>
       <c r="J16">
-        <f>$D$20 - ($D$20-D16)*0.632</f>
+        <f t="shared" si="3"/>
         <v>4.6255199999999999</v>
       </c>
     </row>
@@ -5512,11 +5456,11 @@
         <v>3.3</v>
       </c>
       <c r="I17">
-        <f>($D$20-D17)*0.632+D17</f>
+        <f t="shared" si="2"/>
         <v>7.0038400000000003</v>
       </c>
       <c r="J17">
-        <f>$D$20 - ($D$20-D17)*0.632</f>
+        <f t="shared" si="3"/>
         <v>5.5861599999999996</v>
       </c>
     </row>
@@ -5537,11 +5481,11 @@
         <v>2.98</v>
       </c>
       <c r="I18">
-        <f>($D$20-D18)*0.632+D18</f>
+        <f t="shared" si="2"/>
         <v>7.7067200000000007</v>
       </c>
       <c r="J18">
-        <f>$D$20 - ($D$20-D18)*0.632</f>
+        <f t="shared" si="3"/>
         <v>6.7932799999999993</v>
       </c>
     </row>
@@ -5562,11 +5506,11 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="I19">
-        <f>($D$20-D19)*0.632+D19</f>
+        <f t="shared" si="2"/>
         <v>8.3617600000000003</v>
       </c>
       <c r="J19">
-        <f>$D$20 - ($D$20-D19)*0.632</f>
+        <f t="shared" si="3"/>
         <v>7.9182399999999999</v>
       </c>
     </row>
@@ -5587,11 +5531,11 @@
         <v>29</v>
       </c>
       <c r="I20">
-        <f>($D$20-D20)*0.632+D20</f>
+        <f t="shared" si="2"/>
         <v>8.98</v>
       </c>
       <c r="J20">
-        <f>$D$20 - ($D$20-D20)*0.632</f>
+        <f t="shared" si="3"/>
         <v>8.98</v>
       </c>
     </row>
@@ -5607,7 +5551,7 @@
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
     </row>
-    <row r="25" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>27</v>
       </c>
@@ -5647,11 +5591,11 @@
         <v>4.9800000000000004</v>
       </c>
       <c r="I26">
-        <f>($D$20-D26)*0.632+D26</f>
+        <f t="shared" ref="I26:I31" si="4">($D$20-D26)*0.632+D26</f>
         <v>5.7143680000000003</v>
       </c>
       <c r="J26">
-        <f>$D$20 - ($D$20-D26)*0.632</f>
+        <f t="shared" ref="J26:J31" si="5">$D$20 - ($D$20-D26)*0.632</f>
         <v>3.371632</v>
       </c>
     </row>
@@ -5672,15 +5616,15 @@
         <v>4</v>
       </c>
       <c r="I27">
-        <f>($D$20-D27)*0.632+D27</f>
+        <f t="shared" si="4"/>
         <v>6.4334400000000009</v>
       </c>
       <c r="J27">
-        <f>$D$20 - ($D$20-D27)*0.632</f>
+        <f t="shared" si="5"/>
         <v>4.60656</v>
       </c>
     </row>
-    <row r="28" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C28">
         <v>0.4</v>
       </c>
@@ -5697,15 +5641,15 @@
         <v>3.4</v>
       </c>
       <c r="I28">
-        <f>($D$20-D28)*0.632+D28</f>
+        <f t="shared" si="4"/>
         <v>6.9891199999999998</v>
       </c>
       <c r="J28">
-        <f>$D$20 - ($D$20-D28)*0.632</f>
+        <f t="shared" si="5"/>
         <v>5.5608800000000009</v>
       </c>
     </row>
-    <row r="29" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C29">
         <v>0.6</v>
       </c>
@@ -5722,15 +5666,15 @@
         <v>3.02</v>
       </c>
       <c r="I29">
-        <f>($D$20-D29)*0.632+D29</f>
+        <f t="shared" si="4"/>
         <v>7.6920000000000002</v>
       </c>
       <c r="J29">
-        <f>$D$20 - ($D$20-D29)*0.632</f>
+        <f t="shared" si="5"/>
         <v>6.7680000000000007</v>
       </c>
     </row>
-    <row r="30" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C30">
         <v>0.8</v>
       </c>
@@ -5747,15 +5691,15 @@
         <v>2.4500000000000002</v>
       </c>
       <c r="I30">
-        <f>($D$20-D30)*0.632+D30</f>
+        <f t="shared" si="4"/>
         <v>8.3580800000000011</v>
       </c>
       <c r="J30">
-        <f>$D$20 - ($D$20-D30)*0.632</f>
+        <f t="shared" si="5"/>
         <v>7.9119200000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C31">
         <v>1</v>
       </c>
@@ -5772,11 +5716,11 @@
         <v>29</v>
       </c>
       <c r="I31">
-        <f>($D$20-D31)*0.632+D31</f>
+        <f t="shared" si="4"/>
         <v>8.9652799999999999</v>
       </c>
       <c r="J31">
-        <f>$D$20 - ($D$20-D31)*0.632</f>
+        <f t="shared" si="5"/>
         <v>8.95472</v>
       </c>
     </row>
@@ -5796,12 +5740,117 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="D5:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="17.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>9.1</v>
+      </c>
+      <c r="E6">
+        <v>3.5</v>
+      </c>
+      <c r="F6">
+        <v>3.78</v>
+      </c>
+      <c r="G6">
+        <v>3.73</v>
+      </c>
+    </row>
+    <row r="7" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>9.1</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="G7">
+        <v>4.7699999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>9.1</v>
+      </c>
+      <c r="E8">
+        <v>4.5</v>
+      </c>
+      <c r="F8">
+        <v>4.25</v>
+      </c>
+      <c r="G8">
+        <v>4.2300000000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="E9">
+        <v>6.5</v>
+      </c>
+      <c r="F9">
+        <v>6.71</v>
+      </c>
+      <c r="G9">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="10" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="E10">
+        <v>7</v>
+      </c>
+      <c r="F10">
+        <v>7.01</v>
+      </c>
+      <c r="G10">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="11" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="E11">
+        <v>7.5</v>
+      </c>
+      <c r="F11">
+        <v>7.24</v>
+      </c>
+      <c r="G11">
+        <v>7.2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/week2/graph.xlsx
+++ b/week2/graph.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16005" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16005" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="42">
   <si>
     <t>key parameters:</t>
   </si>
@@ -136,6 +136,21 @@
   <si>
     <t>Experiment Result</t>
   </si>
+  <si>
+    <t>kp</t>
+  </si>
+  <si>
+    <t>kp =0.1, ki = 0</t>
+  </si>
+  <si>
+    <t>Experimental Result</t>
+  </si>
+  <si>
+    <t>w=3.5V, ki = 0</t>
+  </si>
+  <si>
+    <t>w=3.5V, ki = 0.01</t>
+  </si>
 </sst>
 </file>
 
@@ -340,11 +355,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="74148096"/>
-        <c:axId val="74148672"/>
+        <c:axId val="71525504"/>
+        <c:axId val="71526080"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="74148096"/>
+        <c:axId val="71525504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -372,12 +387,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74148672"/>
+        <c:crossAx val="71526080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="74148672"/>
+        <c:axId val="71526080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -406,7 +421,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74148096"/>
+        <c:crossAx val="71525504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -569,7 +584,7 @@
                   <c:v>0.56999999999999995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.55000000000000004</c:v>
+                  <c:v>0.59</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -744,11 +759,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="74150400"/>
-        <c:axId val="74150976"/>
+        <c:axId val="71527808"/>
+        <c:axId val="71528384"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="74150400"/>
+        <c:axId val="71527808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -805,12 +820,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="74150976"/>
+        <c:crossAx val="71528384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="74150976"/>
+        <c:axId val="71528384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -867,7 +882,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="74150400"/>
+        <c:crossAx val="71527808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1265,11 +1280,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="74153280"/>
-        <c:axId val="74219520"/>
+        <c:axId val="71530688"/>
+        <c:axId val="71531264"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="74153280"/>
+        <c:axId val="71530688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1326,12 +1341,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="74219520"/>
+        <c:crossAx val="71531264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="74219520"/>
+        <c:axId val="71531264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1388,7 +1403,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="74153280"/>
+        <c:crossAx val="71530688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1508,15 +1523,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> of Rising edge </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="el-GR" baseline="0"/>
-              <a:t>τ</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> (ms) against duty cycle at varying PWM frequencies</a:t>
+              <a:t> of Output Voltage against duty cycle at varying PWM frequencies</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -1617,7 +1624,7 @@
                   <c:v>7.3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.98</c:v>
+                  <c:v>9.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1804,11 +1811,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="74221824"/>
-        <c:axId val="74222400"/>
+        <c:axId val="109905024"/>
+        <c:axId val="109905600"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="74221824"/>
+        <c:axId val="109905024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1865,12 +1872,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="74222400"/>
+        <c:crossAx val="109905600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="74222400"/>
+        <c:axId val="109905600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1927,7 +1934,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="74221824"/>
+        <c:crossAx val="109905024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3853,7 +3860,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3888,7 +3895,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5160,8 +5167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:J31"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5221,7 +5228,7 @@
         <v>4.8</v>
       </c>
       <c r="I4">
-        <f t="shared" ref="I4:I8" si="0">($D$9-D4)*0.632+D4</f>
+        <f>($D$9-D4)*0.632+D4</f>
         <v>5.7233919999999996</v>
       </c>
       <c r="J4">
@@ -5246,7 +5253,7 @@
         <v>3.66</v>
       </c>
       <c r="I5">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="I4:I8" si="0">($D$9-D5)*0.632+D5</f>
         <v>6.6695200000000003</v>
       </c>
       <c r="J5">
@@ -5407,11 +5414,11 @@
       </c>
       <c r="I15">
         <f t="shared" ref="I15:I20" si="2">($D$20-D15)*0.632+D15</f>
-        <v>5.7044319999999997</v>
+        <v>5.7802719999999992</v>
       </c>
       <c r="J15">
         <f t="shared" ref="J15:J20" si="3">$D$20 - ($D$20-D15)*0.632</f>
-        <v>3.3545680000000004</v>
+        <v>3.3987280000000002</v>
       </c>
     </row>
     <row r="16" spans="3:10" x14ac:dyDescent="0.2">
@@ -5432,11 +5439,11 @@
       </c>
       <c r="I16">
         <f t="shared" si="2"/>
-        <v>6.4444800000000004</v>
+        <v>6.5203199999999999</v>
       </c>
       <c r="J16">
         <f t="shared" si="3"/>
-        <v>4.6255199999999999</v>
+        <v>4.6696799999999996</v>
       </c>
     </row>
     <row r="17" spans="3:10" x14ac:dyDescent="0.2">
@@ -5457,11 +5464,11 @@
       </c>
       <c r="I17">
         <f t="shared" si="2"/>
-        <v>7.0038400000000003</v>
+        <v>7.0796799999999998</v>
       </c>
       <c r="J17">
         <f t="shared" si="3"/>
-        <v>5.5861599999999996</v>
+        <v>5.6303199999999993</v>
       </c>
     </row>
     <row r="18" spans="3:10" x14ac:dyDescent="0.2">
@@ -5482,11 +5489,11 @@
       </c>
       <c r="I18">
         <f t="shared" si="2"/>
-        <v>7.7067200000000007</v>
+        <v>7.7825600000000001</v>
       </c>
       <c r="J18">
         <f t="shared" si="3"/>
-        <v>6.7932799999999993</v>
+        <v>6.8374399999999991</v>
       </c>
     </row>
     <row r="19" spans="3:10" x14ac:dyDescent="0.2">
@@ -5500,18 +5507,18 @@
         <v>0.2</v>
       </c>
       <c r="F19" s="2">
-        <v>0.55000000000000004</v>
+        <v>0.59</v>
       </c>
       <c r="G19" s="2">
         <v>2.2999999999999998</v>
       </c>
       <c r="I19">
-        <f t="shared" si="2"/>
-        <v>8.3617600000000003</v>
+        <f>($D$20-D19)*0.632+D19</f>
+        <v>8.4375999999999998</v>
       </c>
       <c r="J19">
         <f t="shared" si="3"/>
-        <v>7.9182399999999999</v>
+        <v>7.9623999999999997</v>
       </c>
     </row>
     <row r="20" spans="3:10" x14ac:dyDescent="0.2">
@@ -5519,7 +5526,7 @@
         <v>1</v>
       </c>
       <c r="D20">
-        <v>8.98</v>
+        <v>9.1</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -5532,11 +5539,11 @@
       </c>
       <c r="I20">
         <f t="shared" si="2"/>
-        <v>8.98</v>
+        <v>9.1</v>
       </c>
       <c r="J20">
         <f t="shared" si="3"/>
-        <v>8.98</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="24" spans="3:10" x14ac:dyDescent="0.2">
@@ -5592,11 +5599,11 @@
       </c>
       <c r="I26">
         <f t="shared" ref="I26:I31" si="4">($D$20-D26)*0.632+D26</f>
-        <v>5.7143680000000003</v>
+        <v>5.7902079999999998</v>
       </c>
       <c r="J26">
         <f t="shared" ref="J26:J31" si="5">$D$20 - ($D$20-D26)*0.632</f>
-        <v>3.371632</v>
+        <v>3.4157919999999997</v>
       </c>
     </row>
     <row r="27" spans="3:10" x14ac:dyDescent="0.2">
@@ -5617,11 +5624,11 @@
       </c>
       <c r="I27">
         <f t="shared" si="4"/>
-        <v>6.4334400000000009</v>
+        <v>6.5092800000000004</v>
       </c>
       <c r="J27">
         <f t="shared" si="5"/>
-        <v>4.60656</v>
+        <v>4.6507199999999997</v>
       </c>
     </row>
     <row r="28" spans="3:10" x14ac:dyDescent="0.25">
@@ -5642,11 +5649,11 @@
       </c>
       <c r="I28">
         <f t="shared" si="4"/>
-        <v>6.9891199999999998</v>
+        <v>7.0649599999999992</v>
       </c>
       <c r="J28">
         <f t="shared" si="5"/>
-        <v>5.5608800000000009</v>
+        <v>5.6050399999999998</v>
       </c>
     </row>
     <row r="29" spans="3:10" x14ac:dyDescent="0.25">
@@ -5667,11 +5674,11 @@
       </c>
       <c r="I29">
         <f t="shared" si="4"/>
-        <v>7.6920000000000002</v>
+        <v>7.7678399999999996</v>
       </c>
       <c r="J29">
         <f t="shared" si="5"/>
-        <v>6.7680000000000007</v>
+        <v>6.8121600000000004</v>
       </c>
     </row>
     <row r="30" spans="3:10" x14ac:dyDescent="0.25">
@@ -5692,11 +5699,11 @@
       </c>
       <c r="I30">
         <f t="shared" si="4"/>
-        <v>8.3580800000000011</v>
+        <v>8.4339200000000005</v>
       </c>
       <c r="J30">
         <f t="shared" si="5"/>
-        <v>7.9119200000000003</v>
+        <v>7.95608</v>
       </c>
     </row>
     <row r="31" spans="3:10" x14ac:dyDescent="0.25">
@@ -5717,11 +5724,11 @@
       </c>
       <c r="I31">
         <f t="shared" si="4"/>
-        <v>8.9652799999999999</v>
+        <v>9.0411199999999994</v>
       </c>
       <c r="J31">
         <f t="shared" si="5"/>
-        <v>8.95472</v>
+        <v>8.9988799999999998</v>
       </c>
     </row>
   </sheetData>
@@ -5740,10 +5747,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D5:G11"/>
+  <dimension ref="D4:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5752,6 +5759,14 @@
     <col min="7" max="8" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="4" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
     <row r="5" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>33</v>
@@ -5850,7 +5865,130 @@
         <v>7.2</v>
       </c>
     </row>
+    <row r="15" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D15" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <v>0.2</v>
+      </c>
+      <c r="G17">
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="18" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <v>0.4</v>
+      </c>
+      <c r="G18">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="19" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <v>0.6</v>
+      </c>
+      <c r="G19">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="20" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <v>0.8</v>
+      </c>
+      <c r="G20">
+        <v>3.39</v>
+      </c>
+    </row>
+    <row r="21" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="25" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D25" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>37</v>
+      </c>
+      <c r="F26" t="s">
+        <v>35</v>
+      </c>
+      <c r="G26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="E27">
+        <v>0.2</v>
+      </c>
+      <c r="G27">
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="28" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="E28">
+        <v>0.4</v>
+      </c>
+      <c r="G28">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="29" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="E29">
+        <v>0.6</v>
+      </c>
+      <c r="G29">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="30" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="E30">
+        <v>0.8</v>
+      </c>
+      <c r="G30">
+        <v>3.39</v>
+      </c>
+    </row>
+    <row r="31" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>3.5</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="D25:G25"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/week2/graph.xlsx
+++ b/week2/graph.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26124"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnlimjsj/GitHub/EE4207_ControlSystems/week2/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16005" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$F$2:$O$9</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="43">
   <si>
     <t>key parameters:</t>
   </si>
@@ -151,6 +156,9 @@
   <si>
     <t>w=3.5V, ki = 0.01</t>
   </si>
+  <si>
+    <t>u0</t>
+  </si>
 </sst>
 </file>
 
@@ -160,10 +168,26 @@
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -186,8 +210,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -201,7 +229,11 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -244,7 +276,7 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.1</c:v>
@@ -265,13 +297,13 @@
                   <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.47499999999999998</c:v>
+                  <c:v>0.475</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.52500000000000002</c:v>
+                  <c:v>0.525</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.55000000000000004</c:v>
+                  <c:v>0.55</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.6</c:v>
@@ -298,10 +330,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0900000000000001</c:v>
+                  <c:v>1.09</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2.04</c:v>
@@ -325,7 +357,7 @@
                   <c:v>4.7</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.9400000000000004</c:v>
+                  <c:v>4.94</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>5.41</c:v>
@@ -355,11 +387,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="71525504"/>
-        <c:axId val="71526080"/>
+        <c:axId val="-2104947664"/>
+        <c:axId val="2133069120"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="71525504"/>
+        <c:axId val="-2104947664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -387,12 +419,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71526080"/>
+        <c:crossAx val="2133069120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="71526080"/>
+        <c:axId val="2133069120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -421,7 +453,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71525504"/>
+        <c:crossAx val="-2104947664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -489,7 +521,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> (ms) against duty cycle at varying PWM frequencies</a:t>
+              <a:t> (ms) against stap size at varying PWM frequencies</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -504,6 +536,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -548,7 +600,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.8</c:v>
@@ -572,19 +624,19 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.65</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.63</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.57999999999999996</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.56999999999999995</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.59</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -628,7 +680,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.8</c:v>
@@ -652,19 +704,19 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.66500000000000004</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.66</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.64</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.59</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.46</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -708,7 +760,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.8</c:v>
@@ -732,19 +784,19 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.64</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.65</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.56999999999999995</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.52</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.64</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -759,11 +811,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="71527808"/>
-        <c:axId val="71528384"/>
+        <c:axId val="-2105422608"/>
+        <c:axId val="-2105436336"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="71527808"/>
+        <c:axId val="-2105422608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -820,12 +872,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="71528384"/>
+        <c:crossAx val="-2105436336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="71528384"/>
+        <c:axId val="-2105436336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -882,7 +934,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="71527808"/>
+        <c:crossAx val="-2105422608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1010,7 +1062,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> (ms) against duty cycle at varying PWM frequencies</a:t>
+              <a:t> (ms) against step size at varying PWM frequencies</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -1025,6 +1077,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1069,7 +1141,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.8</c:v>
@@ -1093,19 +1165,19 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>4.95</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.95</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.3</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.98</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.2999999999999998</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1149,7 +1221,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.8</c:v>
@@ -1173,19 +1245,19 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>4.9800000000000004</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.4</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.02</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.4500000000000002</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1229,7 +1301,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.8</c:v>
@@ -1253,19 +1325,19 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>4.8</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.66</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.08</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.48</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.04</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1280,11 +1352,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="71530688"/>
-        <c:axId val="71531264"/>
+        <c:axId val="-2110527360"/>
+        <c:axId val="-2105383328"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="71530688"/>
+        <c:axId val="-2110527360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1341,12 +1413,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="71531264"/>
+        <c:crossAx val="-2105383328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="71531264"/>
+        <c:axId val="-2105383328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1403,7 +1475,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="71530688"/>
+        <c:crossAx val="-2110527360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1519,13 +1591,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Graph</a:t>
+              <a:t>Graph of Output Voltage against duty cycle at varying PWM frequencies</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> of Output Voltage against duty cycle at varying PWM frequencies</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1538,6 +1605,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1582,7 +1669,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.2</c:v>
@@ -1597,7 +1684,7 @@
                   <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1609,7 +1696,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>7.9000000000000001E-2</c:v>
+                  <c:v>0.079</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2.09</c:v>
@@ -1668,7 +1755,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.2</c:v>
@@ -1683,7 +1770,7 @@
                   <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1754,7 +1841,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.2</c:v>
@@ -1769,7 +1856,7 @@
                   <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1781,13 +1868,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>7.9000000000000001E-2</c:v>
+                  <c:v>0.079</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2.65</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.5199999999999996</c:v>
+                  <c:v>4.52</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>5.78</c:v>
@@ -1811,11 +1898,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="109905024"/>
-        <c:axId val="109905600"/>
+        <c:axId val="-2147302672"/>
+        <c:axId val="-2147313232"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="109905024"/>
+        <c:axId val="-2147302672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1872,12 +1959,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="109905600"/>
+        <c:crossAx val="-2147313232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="109905600"/>
+        <c:axId val="-2147313232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1934,7 +2021,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="109905024"/>
+        <c:crossAx val="-2147302672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3785,15 +3872,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>185616</xdr:rowOff>
+      <xdr:colOff>243417</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>42333</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>661376</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>53731</xdr:rowOff>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>21166</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3860,7 +3947,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3895,7 +3982,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4110,15 +4197,15 @@
       <selection activeCell="K29" sqref="K29:L33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5" customWidth="1"/>
+    <col min="8" max="8" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
@@ -4398,7 +4485,7 @@
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="F12" t="s">
         <v>20</v>
       </c>
@@ -4627,7 +4714,7 @@
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B20" s="1">
         <v>0.3</v>
       </c>
@@ -4876,7 +4963,7 @@
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B28" s="1">
         <v>0.65</v>
       </c>
@@ -5084,7 +5171,7 @@
         <v>4.2709700000000002</v>
       </c>
     </row>
-    <row r="41" spans="6:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F41" t="s">
         <v>16</v>
       </c>
@@ -5095,56 +5182,56 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="6:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F42" s="1">
         <v>0.2</v>
       </c>
     </row>
-    <row r="43" spans="6:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F43" s="1">
         <v>0.4</v>
       </c>
     </row>
-    <row r="44" spans="6:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F44" s="1">
         <v>0.6</v>
       </c>
     </row>
-    <row r="45" spans="6:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F45" s="1">
         <v>0.8</v>
       </c>
     </row>
-    <row r="46" spans="6:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F46" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="6:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F47" s="1"/>
     </row>
-    <row r="48" spans="6:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F48" s="1"/>
     </row>
-    <row r="49" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F49" s="1"/>
     </row>
-    <row r="50" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F50" s="1"/>
     </row>
-    <row r="51" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F51" s="1"/>
     </row>
-    <row r="52" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F52" s="1"/>
     </row>
-    <row r="53" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F53" s="1"/>
     </row>
-    <row r="54" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F54" s="1"/>
     </row>
-    <row r="55" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F55" s="1"/>
     </row>
   </sheetData>
@@ -5167,13 +5254,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="X4" sqref="X4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:10" x14ac:dyDescent="0.2">
@@ -5188,7 +5275,7 @@
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
         <v>27</v>
       </c>
@@ -5222,10 +5309,10 @@
         <v>1</v>
       </c>
       <c r="F4" s="2">
-        <v>0.64</v>
+        <v>0</v>
       </c>
       <c r="G4" s="2">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <f>($D$9-D4)*0.632+D4</f>
@@ -5247,13 +5334,13 @@
         <v>0.8</v>
       </c>
       <c r="F5" s="2">
-        <v>0.65</v>
+        <v>0</v>
       </c>
       <c r="G5" s="2">
-        <v>3.66</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <f t="shared" ref="I4:I8" si="0">($D$9-D5)*0.632+D5</f>
+        <f t="shared" ref="I5:I8" si="0">($D$9-D5)*0.632+D5</f>
         <v>6.6695200000000003</v>
       </c>
       <c r="J5">
@@ -5272,10 +5359,10 @@
         <v>0.6</v>
       </c>
       <c r="F6" s="2">
-        <v>0.56999999999999995</v>
+        <v>0</v>
       </c>
       <c r="G6" s="2">
-        <v>3.08</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <f t="shared" si="0"/>
@@ -5297,10 +5384,10 @@
         <v>0.4</v>
       </c>
       <c r="F7" s="2">
-        <v>0.52</v>
+        <v>0</v>
       </c>
       <c r="G7" s="2">
-        <v>2.48</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <f t="shared" si="0"/>
@@ -5322,10 +5409,10 @@
         <v>0.2</v>
       </c>
       <c r="F8" s="2">
-        <v>0.64</v>
+        <v>0</v>
       </c>
       <c r="G8" s="2">
-        <v>2.04</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <f t="shared" si="0"/>
@@ -5373,7 +5460,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
         <v>27</v>
       </c>
@@ -5407,10 +5494,10 @@
         <v>1</v>
       </c>
       <c r="F15" s="2">
-        <v>0.65</v>
+        <v>0</v>
       </c>
       <c r="G15" s="2">
-        <v>4.95</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <f t="shared" ref="I15:I20" si="2">($D$20-D15)*0.632+D15</f>
@@ -5432,10 +5519,10 @@
         <v>0.8</v>
       </c>
       <c r="F16" s="2">
-        <v>0.63</v>
+        <v>0</v>
       </c>
       <c r="G16" s="2">
-        <v>3.95</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <f t="shared" si="2"/>
@@ -5457,10 +5544,10 @@
         <v>0.6</v>
       </c>
       <c r="F17" s="2">
-        <v>0.57999999999999996</v>
+        <v>0</v>
       </c>
       <c r="G17" s="2">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <f t="shared" si="2"/>
@@ -5482,10 +5569,10 @@
         <v>0.4</v>
       </c>
       <c r="F18" s="2">
-        <v>0.56999999999999995</v>
+        <v>0</v>
       </c>
       <c r="G18" s="2">
-        <v>2.98</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <f t="shared" si="2"/>
@@ -5507,10 +5594,10 @@
         <v>0.2</v>
       </c>
       <c r="F19" s="2">
-        <v>0.59</v>
+        <v>0</v>
       </c>
       <c r="G19" s="2">
-        <v>2.2999999999999998</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <f>($D$20-D19)*0.632+D19</f>
@@ -5558,7 +5645,7 @@
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
     </row>
-    <row r="25" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
         <v>27</v>
       </c>
@@ -5592,10 +5679,10 @@
         <v>1</v>
       </c>
       <c r="F26" s="2">
-        <v>0.66500000000000004</v>
+        <v>0</v>
       </c>
       <c r="G26" s="2">
-        <v>4.9800000000000004</v>
+        <v>0</v>
       </c>
       <c r="I26">
         <f t="shared" ref="I26:I31" si="4">($D$20-D26)*0.632+D26</f>
@@ -5617,10 +5704,10 @@
         <v>0.8</v>
       </c>
       <c r="F27" s="2">
-        <v>0.66</v>
+        <v>0</v>
       </c>
       <c r="G27" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I27">
         <f t="shared" si="4"/>
@@ -5631,7 +5718,7 @@
         <v>4.6507199999999997</v>
       </c>
     </row>
-    <row r="28" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C28">
         <v>0.4</v>
       </c>
@@ -5642,10 +5729,10 @@
         <v>0.6</v>
       </c>
       <c r="F28" s="2">
-        <v>0.64</v>
+        <v>0</v>
       </c>
       <c r="G28" s="2">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="I28">
         <f t="shared" si="4"/>
@@ -5656,7 +5743,7 @@
         <v>5.6050399999999998</v>
       </c>
     </row>
-    <row r="29" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C29">
         <v>0.6</v>
       </c>
@@ -5667,10 +5754,10 @@
         <v>0.4</v>
       </c>
       <c r="F29" s="2">
-        <v>0.59</v>
+        <v>0</v>
       </c>
       <c r="G29" s="2">
-        <v>3.02</v>
+        <v>0</v>
       </c>
       <c r="I29">
         <f t="shared" si="4"/>
@@ -5681,7 +5768,7 @@
         <v>6.8121600000000004</v>
       </c>
     </row>
-    <row r="30" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C30">
         <v>0.8</v>
       </c>
@@ -5692,10 +5779,10 @@
         <v>0.2</v>
       </c>
       <c r="F30" s="2">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="G30" s="2">
-        <v>2.4500000000000002</v>
+        <v>0</v>
       </c>
       <c r="I30">
         <f t="shared" si="4"/>
@@ -5706,7 +5793,7 @@
         <v>7.95608</v>
       </c>
     </row>
-    <row r="31" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C31">
         <v>1</v>
       </c>
@@ -5747,19 +5834,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D4:G31"/>
+  <dimension ref="B4:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D4" s="5" t="s">
         <v>38</v>
       </c>
@@ -5767,7 +5854,13 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
       <c r="D5" t="s">
         <v>33</v>
       </c>
@@ -5781,101 +5874,154 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>0.1</v>
+      </c>
       <c r="D6">
         <v>9.1</v>
       </c>
       <c r="E6">
         <v>3.5</v>
       </c>
-      <c r="F6">
-        <v>3.78</v>
+      <c r="F6" s="3">
+        <f>(C6*D6*E6)/(1+C6*D6)+(1*B6)/(1+C6*D6)</f>
+        <v>3.7617801047120416</v>
       </c>
       <c r="G6">
         <v>3.73</v>
       </c>
     </row>
-    <row r="7" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>0.1</v>
+      </c>
       <c r="D7">
         <v>9.1</v>
       </c>
       <c r="E7">
         <v>4</v>
       </c>
-      <c r="F7">
-        <v>4.0199999999999996</v>
+      <c r="F7" s="3">
+        <f>(C7*D7*E7)/(1+C7*D7)+(1*B7)/(1+C7*D7)</f>
+        <v>4</v>
       </c>
       <c r="G7">
         <v>4.7699999999999996</v>
       </c>
     </row>
-    <row r="8" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>0.1</v>
+      </c>
       <c r="D8">
         <v>9.1</v>
       </c>
       <c r="E8">
         <v>4.5</v>
       </c>
-      <c r="F8">
-        <v>4.25</v>
+      <c r="F8" s="3">
+        <f t="shared" ref="F8:F11" si="0">(C8*D8*E8)/(1+C8*D8)+(1*B8)/(1+C8*D8)</f>
+        <v>4.2382198952879584</v>
       </c>
       <c r="G8">
         <v>4.2300000000000004</v>
       </c>
     </row>
-    <row r="9" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>0.1</v>
+      </c>
       <c r="D9">
         <v>9.3000000000000007</v>
       </c>
       <c r="E9">
         <v>6.5</v>
       </c>
-      <c r="F9">
-        <v>6.71</v>
+      <c r="F9" s="3">
+        <f t="shared" si="0"/>
+        <v>6.7590673575129525</v>
       </c>
       <c r="G9">
         <v>6.7</v>
       </c>
     </row>
-    <row r="10" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>0.1</v>
+      </c>
       <c r="D10">
         <v>9.3000000000000007</v>
       </c>
       <c r="E10">
         <v>7</v>
       </c>
-      <c r="F10">
-        <v>7.01</v>
+      <c r="F10" s="3">
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="G10">
         <v>6.25</v>
       </c>
     </row>
-    <row r="11" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>0.1</v>
+      </c>
       <c r="D11">
         <v>9.3000000000000007</v>
       </c>
       <c r="E11">
         <v>7.5</v>
       </c>
-      <c r="F11">
-        <v>7.24</v>
+      <c r="F11" s="3">
+        <f t="shared" si="0"/>
+        <v>7.2409326424870466</v>
       </c>
       <c r="G11">
         <v>7.2</v>
       </c>
     </row>
-    <row r="15" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D15" s="5" t="s">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B15" s="5" t="s">
         <v>40</v>
       </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
     </row>
-    <row r="16" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" t="s">
+        <v>33</v>
+      </c>
       <c r="E16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F16" t="s">
         <v>35</v>
@@ -5884,57 +6030,133 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0.2</v>
+      </c>
+      <c r="D17">
+        <v>9.1</v>
+      </c>
       <c r="E17">
-        <v>0.2</v>
+        <v>3.5</v>
+      </c>
+      <c r="F17" s="3">
+        <f>(C17*D17*E17)/(1+C17*D17)+(1*B17)/(1+C17*D17)</f>
+        <v>2.2588652482269502</v>
       </c>
       <c r="G17">
         <v>2.62</v>
       </c>
     </row>
-    <row r="18" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0.4</v>
+      </c>
+      <c r="D18">
+        <v>9.1</v>
+      </c>
       <c r="E18">
-        <v>0.4</v>
+        <v>3.5</v>
+      </c>
+      <c r="F18" s="3">
+        <f t="shared" ref="F18:F21" si="1">(C18*D18*E18)/(1+C18*D18)+(1*B18)/(1+C18*D18)</f>
+        <v>2.7456896551724137</v>
       </c>
       <c r="G18">
         <v>3.1</v>
       </c>
     </row>
-    <row r="19" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0.6</v>
+      </c>
+      <c r="D19">
+        <v>9.1</v>
+      </c>
       <c r="E19">
-        <v>0.6</v>
+        <v>3.5</v>
+      </c>
+      <c r="F19" s="3">
+        <f t="shared" si="1"/>
+        <v>2.958204334365325</v>
       </c>
       <c r="G19">
         <v>3.3</v>
       </c>
     </row>
-    <row r="20" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0.8</v>
+      </c>
+      <c r="D20">
+        <v>9.1</v>
+      </c>
       <c r="E20">
-        <v>0.8</v>
+        <v>3.5</v>
+      </c>
+      <c r="F20" s="3">
+        <f t="shared" si="1"/>
+        <v>3.0772946859903376</v>
       </c>
       <c r="G20">
         <v>3.39</v>
       </c>
     </row>
-    <row r="21" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>9.1</v>
+      </c>
       <c r="E21">
-        <v>1</v>
+        <v>3.5</v>
+      </c>
+      <c r="F21" s="3">
+        <f t="shared" si="1"/>
+        <v>3.1534653465346532</v>
       </c>
       <c r="G21">
         <v>3.5</v>
       </c>
     </row>
-    <row r="25" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D25" s="5" t="s">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B25" s="5" t="s">
         <v>41</v>
       </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
     </row>
-    <row r="26" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" t="s">
+        <v>33</v>
+      </c>
       <c r="E26" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F26" t="s">
         <v>35</v>
@@ -5943,41 +6165,101 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0.2</v>
+      </c>
+      <c r="D27">
+        <v>9.1</v>
+      </c>
       <c r="E27">
-        <v>0.2</v>
+        <v>3.5</v>
+      </c>
+      <c r="F27">
+        <v>3.5</v>
       </c>
       <c r="G27">
-        <v>2.62</v>
-      </c>
-    </row>
-    <row r="28" spans="4:7" x14ac:dyDescent="0.25">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0.4</v>
+      </c>
+      <c r="D28">
+        <v>9.1</v>
+      </c>
       <c r="E28">
-        <v>0.4</v>
+        <v>3.5</v>
+      </c>
+      <c r="F28">
+        <v>3.5</v>
       </c>
       <c r="G28">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="29" spans="4:7" x14ac:dyDescent="0.25">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0.6</v>
+      </c>
+      <c r="D29">
+        <v>9.1</v>
+      </c>
       <c r="E29">
-        <v>0.6</v>
+        <v>3.5</v>
+      </c>
+      <c r="F29">
+        <v>3.5</v>
       </c>
       <c r="G29">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="30" spans="4:7" x14ac:dyDescent="0.25">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0.8</v>
+      </c>
+      <c r="D30">
+        <v>9.1</v>
+      </c>
       <c r="E30">
-        <v>0.8</v>
+        <v>3.5</v>
+      </c>
+      <c r="F30">
+        <v>3.5</v>
       </c>
       <c r="G30">
-        <v>3.39</v>
-      </c>
-    </row>
-    <row r="31" spans="4:7" x14ac:dyDescent="0.25">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>9.1</v>
+      </c>
       <c r="E31">
-        <v>1</v>
+        <v>3.5</v>
+      </c>
+      <c r="F31">
+        <v>3.5</v>
       </c>
       <c r="G31">
         <v>3.5</v>
@@ -5986,9 +6268,10 @@
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="D4:G4"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B25:G25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/week2/graph.xlsx
+++ b/week2/graph.xlsx
@@ -1,25 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26124"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnlimjsj/GitHub/EE4207_ControlSystems/week2/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14175" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="openLoop" sheetId="2" r:id="rId2"/>
-    <sheet name="closedLoop" sheetId="3" r:id="rId3"/>
+    <sheet name="OL_fake" sheetId="4" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="openLoop" sheetId="2" r:id="rId3"/>
+    <sheet name="closedLoop" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$F$2:$O$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$F$2:$O$9</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -29,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="43">
   <si>
     <t>key parameters:</t>
   </si>
@@ -260,119 +256,305 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>Graph</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0"/>
+              <a:t> of Rising edge </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="el-GR" sz="1100" baseline="0"/>
+              <a:t>τ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0"/>
+              <a:t> (ms) against step size at varying PWM frequencies</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.21883918192076077"/>
+          <c:y val="0.16031463949333974"/>
+          <c:w val="0.71257584081059633"/>
+          <c:h val="0.62804543734817619"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>10KHz</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$17:$B$31</c:f>
+              <c:f>OL_fake!$E$15:$E$19</c:f>
               <c:numCache>
-                <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>0.0</c:v>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.35</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.45</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.475</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.525</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.55</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$17:$C$31</c:f>
+              <c:f>OL_fake!$F$15:$F$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.62</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>30KHz</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>OL_fake!$E$26:$E$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.09</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.04</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.83</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.04</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.51</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.99</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.22</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.7</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.94</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5.41</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5.88</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6.43</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7.24</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>8.16</c:v>
+                  <c:v>0.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>OL_fake!$F$26:$F$30</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>5KHz</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>OL_fake!$E$4:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>OL_fake!$F$4:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.66</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -387,16 +569,33 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2104947664"/>
-        <c:axId val="2133069120"/>
+        <c:axId val="111191744"/>
+        <c:axId val="111192320"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2104947664"/>
+        <c:axId val="111191744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines/>
         <c:title>
           <c:tx>
             <c:rich>
@@ -408,33 +607,90 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Duty Cycle</a:t>
+                  <a:t>Step Size</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.49371330037233718"/>
+              <c:y val="0.82772128814987256"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2133069120"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="111192320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.2"/>
+        <c:minorUnit val="0.1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2133069120"/>
+        <c:axId val="111192320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0.60000000000000009"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="0" vert="horz"/>
+              <a:bodyPr rot="-5400000" vert="horz"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -442,30 +698,124 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Output (V)</a:t>
+                  <a:t>Rising Edge Time Constant (ms)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2104947664"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="111191744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -495,7 +845,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -508,22 +858,22 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="1100"/>
               <a:t>Graph</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> of Rising edge </a:t>
+              <a:rPr lang="en-US" sz="1100" baseline="0"/>
+              <a:t> of Falling edge </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="el-GR" baseline="0"/>
+              <a:rPr lang="el-GR" sz="1100" baseline="0"/>
               <a:t>τ</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> (ms) against stap size at varying PWM frequencies</a:t>
+              <a:rPr lang="en-US" sz="1100" baseline="0"/>
+              <a:t> (ms) against step size at varying PWM frequencies</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -536,26 +886,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -595,12 +925,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>openLoop!$E$15:$E$19</c:f>
+              <c:f>OL_fake!$E$15:$E$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.8</c:v>
@@ -619,24 +949,24 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>openLoop!$F$15:$F$19</c:f>
+              <c:f>OL_fake!$G$15:$G$19</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>4.55</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>3.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>2.72</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>1.7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0.79500000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -675,12 +1005,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>openLoop!$E$26:$E$30</c:f>
+              <c:f>OL_fake!$E$26:$E$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.8</c:v>
@@ -699,24 +1029,24 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>openLoop!$F$26:$F$30</c:f>
+              <c:f>OL_fake!$G$26:$G$30</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>4.5999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>3.45</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>2.2200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>1.32</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0.71</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -755,12 +1085,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>openLoop!$E$4:$E$8</c:f>
+              <c:f>OL_fake!$E$4:$E$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.8</c:v>
@@ -779,24 +1109,24 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>openLoop!$F$4:$F$8</c:f>
+              <c:f>OL_fake!$G$4:$G$8</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>4.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>2.98</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>1.78</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>1.34</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0.86</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -811,11 +1141,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2105422608"/>
-        <c:axId val="-2105436336"/>
+        <c:axId val="111195200"/>
+        <c:axId val="111195776"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2105422608"/>
+        <c:axId val="111195200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -835,6 +1165,26 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Step size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -872,12 +1222,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2105436336"/>
+        <c:crossAx val="111195776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2105436336"/>
+        <c:axId val="111195776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -897,6 +1247,25 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Falling Edge Time Constant (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -934,7 +1303,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2105422608"/>
+        <c:crossAx val="111195200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1036,7 +1405,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1049,22 +1418,9 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Graph</a:t>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>Graph of Step Response (V) against duty cycle at varying PWM frequencies</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> of Falling edge </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="el-GR" baseline="0"/>
-              <a:t>τ</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> (ms) against step size at varying PWM frequencies</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1077,26 +1433,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1136,48 +1472,54 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>openLoop!$E$15:$E$19</c:f>
+              <c:f>OL_fake!$C$15:$C$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.8</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.2</c:v>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>openLoop!$G$15:$G$19</c:f>
+              <c:f>OL_fake!$D$15:$D$20</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0.17899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>2.04</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>3.53</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>5.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.98</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1216,48 +1558,54 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>openLoop!$E$26:$E$30</c:f>
+              <c:f>OL_fake!$C$26:$C$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.8</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.2</c:v>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>openLoop!$G$26:$G$30</c:f>
+              <c:f>OL_fake!$D$26:$D$31</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0.313</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>2.04</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>3.9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>5.77</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>7.59</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.98</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1296,48 +1644,54 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>openLoop!$E$4:$E$8</c:f>
+              <c:f>OL_fake!$C$4:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.8</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.2</c:v>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>openLoop!$G$4:$G$8</c:f>
+              <c:f>OL_fake!$D$4:$D$9</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0.34599999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>2.79</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>4.54</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>5.67</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>7.27</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.01</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1352,11 +1706,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2110527360"/>
-        <c:axId val="-2105383328"/>
+        <c:axId val="111837760"/>
+        <c:axId val="111838336"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2110527360"/>
+        <c:axId val="111837760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1376,6 +1730,26 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>PWM Duty Cycle</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1413,12 +1787,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2105383328"/>
+        <c:crossAx val="111838336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2105383328"/>
+        <c:axId val="111838336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1438,7 +1812,26 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Step response (V)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1475,7 +1868,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2110527360"/>
+        <c:crossAx val="111837760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1570,6 +1963,234 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$17:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.47499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.52500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$17:$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.04</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.83</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.51</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.99</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.22</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.9400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.41</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.43</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.24</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="68447040"/>
+        <c:axId val="68447616"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="68447040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Duty Cycle</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="68447616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="68447616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Output (V)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="68447040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-SG"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
     <c:title>
       <c:tx>
         <c:rich>
@@ -1577,7 +2198,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1590,12 +2211,486 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Graph of Output Voltage against duty cycle at varying PWM frequencies</a:t>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>Graph</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0"/>
+              <a:t> of Rising edge </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="el-GR" sz="1100" baseline="0"/>
+              <a:t>τ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0"/>
+              <a:t> (ms) against step size at varying PWM frequencies</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.21883918192076077"/>
+          <c:y val="0.16031463949333974"/>
+          <c:w val="0.71257584081059633"/>
+          <c:h val="0.62804543734817619"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>10KHz</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>openLoop!$E$15:$E$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>openLoop!$F$15:$F$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.62</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>30KHz</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>openLoop!$E$26:$E$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>openLoop!$F$26:$F$30</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.65500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>5KHz</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>openLoop!$E$4:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>openLoop!$F$4:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.66</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="68449344"/>
+        <c:axId val="68449920"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="68449344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Step Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.49371330037233718"/>
+              <c:y val="0.82772128814987256"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="68449920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.2"/>
+        <c:minorUnit val="0.1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="68449920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Rising Edge Time Constant (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="68449344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1610,7 +2705,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1625,6 +2720,653 @@
           <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-SG"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>Graph</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0"/>
+              <a:t> of Falling edge </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="el-GR" sz="1100" baseline="0"/>
+              <a:t>τ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0"/>
+              <a:t> (ms) against step size at varying PWM frequencies</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>10KHz</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>openLoop!$E$15:$E$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>openLoop!$G$15:$G$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.55</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.72</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.79500000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>30KHz</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>openLoop!$E$26:$E$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>openLoop!$G$26:$G$30</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.71</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>5KHz</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>openLoop!$E$4:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>openLoop!$G$4:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.98</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.78</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.34</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.86</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="71499776"/>
+        <c:axId val="71500352"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="71499776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Step size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="71500352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="71500352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Falling Edge Time Constant (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="71499776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-SG"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>Graph of Step Response (V) against duty cycle at varying PWM frequencies</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1669,7 +3411,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.2</c:v>
@@ -1684,7 +3426,7 @@
                   <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1696,22 +3438,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.079</c:v>
+                  <c:v>0.17899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.09</c:v>
+                  <c:v>2.04</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.61</c:v>
+                  <c:v>3.53</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.52</c:v>
+                  <c:v>5.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>7.3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.1</c:v>
+                  <c:v>8.98</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1755,7 +3497,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.2</c:v>
@@ -1770,7 +3512,7 @@
                   <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1782,22 +3524,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.106</c:v>
+                  <c:v>0.313</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.06</c:v>
+                  <c:v>2.04</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.57</c:v>
+                  <c:v>3.9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.48</c:v>
+                  <c:v>5.77</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.29</c:v>
+                  <c:v>7.59</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.94</c:v>
+                  <c:v>8.98</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1841,7 +3583,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.2</c:v>
@@ -1856,7 +3598,7 @@
                   <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1868,19 +3610,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.079</c:v>
+                  <c:v>0.34599999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.65</c:v>
+                  <c:v>2.79</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.52</c:v>
+                  <c:v>4.54</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.78</c:v>
+                  <c:v>5.67</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.22</c:v>
+                  <c:v>7.27</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>9.01</c:v>
@@ -1898,11 +3640,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2147302672"/>
-        <c:axId val="-2147313232"/>
+        <c:axId val="71502656"/>
+        <c:axId val="71503232"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2147302672"/>
+        <c:axId val="71502656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1922,6 +3664,26 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>PWM Duty Cycle</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1959,12 +3721,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2147313232"/>
+        <c:crossAx val="71503232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2147313232"/>
+        <c:axId val="71503232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1984,6 +3746,25 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Step response (V)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2021,7 +3802,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2147302672"/>
+        <c:crossAx val="71502656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3774,6 +5555,107 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>25398</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>350960</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>84260</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>3008</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>243417</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>42333</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>21166</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
       <xdr:row>5</xdr:row>
@@ -3805,20 +5687,20 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:rowOff>25398</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3840,15 +5722,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>322385</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>350960</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>55685</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:colOff>84260</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>3008</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4191,21 +6073,602 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:J31"/>
+  <sheetViews>
+    <sheetView topLeftCell="M1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="R21" sqref="R21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+    </row>
+    <row r="3" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <f>346/1000</f>
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.79</v>
+      </c>
+      <c r="G4" s="2">
+        <v>4.75</v>
+      </c>
+      <c r="I4">
+        <f>($D$9-D4)*0.632+D4</f>
+        <v>5.8216479999999997</v>
+      </c>
+      <c r="J4">
+        <f>$D$9 - ($D$9-D4)*0.632</f>
+        <v>3.5343520000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C5">
+        <v>0.2</v>
+      </c>
+      <c r="D5">
+        <v>2.79</v>
+      </c>
+      <c r="E5">
+        <v>0.8</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="G5" s="2">
+        <v>2.98</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ref="I5:I8" si="0">($D$9-D5)*0.632+D5</f>
+        <v>6.7210400000000003</v>
+      </c>
+      <c r="J5">
+        <f t="shared" ref="J5:J9" si="1">$D$9 - ($D$9-D5)*0.632</f>
+        <v>5.0789600000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C6">
+        <v>0.4</v>
+      </c>
+      <c r="D6">
+        <v>4.54</v>
+      </c>
+      <c r="E6">
+        <v>0.6</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.72</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1.78</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>7.3650400000000005</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>6.1849600000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C7">
+        <v>0.6</v>
+      </c>
+      <c r="D7">
+        <v>5.67</v>
+      </c>
+      <c r="E7">
+        <v>0.4</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.68</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1.34</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>7.7808799999999998</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>6.8991199999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C8">
+        <v>0.8</v>
+      </c>
+      <c r="D8">
+        <v>7.27</v>
+      </c>
+      <c r="E8">
+        <v>0.2</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.66</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.86</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>8.3696799999999989</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>7.9103199999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>9.01</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9">
+        <f>($D$9-D9)*0.632+D9</f>
+        <v>9.01</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>9.01</v>
+      </c>
+    </row>
+    <row r="13" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+    </row>
+    <row r="14" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="G15" s="2">
+        <v>4.55</v>
+      </c>
+      <c r="I15">
+        <f t="shared" ref="I15:I20" si="2">($D$20-D15)*0.632+D15</f>
+        <v>5.7412320000000001</v>
+      </c>
+      <c r="J15">
+        <f t="shared" ref="J15:J20" si="3">$D$20 - ($D$20-D15)*0.632</f>
+        <v>3.4177680000000006</v>
+      </c>
+    </row>
+    <row r="16" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C16">
+        <v>0.2</v>
+      </c>
+      <c r="D16">
+        <v>2.04</v>
+      </c>
+      <c r="E16">
+        <v>0.8</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0.69</v>
+      </c>
+      <c r="G16" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="2"/>
+        <v>6.4260800000000007</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="3"/>
+        <v>4.5939199999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C17">
+        <v>0.4</v>
+      </c>
+      <c r="D17">
+        <v>3.53</v>
+      </c>
+      <c r="E17">
+        <v>0.6</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0.68</v>
+      </c>
+      <c r="G17" s="2">
+        <v>2.72</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="2"/>
+        <v>6.974400000000001</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="3"/>
+        <v>5.5355999999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C18">
+        <v>0.6</v>
+      </c>
+      <c r="D18">
+        <v>5.4</v>
+      </c>
+      <c r="E18">
+        <v>0.4</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="G18" s="2">
+        <v>1.7</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="2"/>
+        <v>7.6625600000000009</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="3"/>
+        <v>6.7174399999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C19">
+        <v>0.8</v>
+      </c>
+      <c r="D19">
+        <v>7.3</v>
+      </c>
+      <c r="E19">
+        <v>0.2</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0.62</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="I19">
+        <f>($D$20-D19)*0.632+D19</f>
+        <v>8.3617600000000003</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="3"/>
+        <v>7.9182399999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>8.98</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="2"/>
+        <v>8.98</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="3"/>
+        <v>8.98</v>
+      </c>
+    </row>
+    <row r="24" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C24" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+    </row>
+    <row r="25" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" t="s">
+        <v>18</v>
+      </c>
+      <c r="I25" t="s">
+        <v>25</v>
+      </c>
+      <c r="J25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0.313</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0.72</v>
+      </c>
+      <c r="G26" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="I26">
+        <f t="shared" ref="I26:I30" si="4">($D$31-D26)*0.632+D26</f>
+        <v>5.7905439999999997</v>
+      </c>
+      <c r="J26">
+        <f t="shared" ref="J26:J31" si="5">$D$20 - ($D$20-D26)*0.632</f>
+        <v>3.5024560000000005</v>
+      </c>
+    </row>
+    <row r="27" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C27">
+        <v>0.2</v>
+      </c>
+      <c r="D27">
+        <v>2.04</v>
+      </c>
+      <c r="E27">
+        <v>0.8</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="G27" s="2">
+        <v>3.45</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="4"/>
+        <v>6.4260800000000007</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="5"/>
+        <v>4.5939199999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C28">
+        <v>0.4</v>
+      </c>
+      <c r="D28">
+        <v>3.9</v>
+      </c>
+      <c r="E28">
+        <v>0.6</v>
+      </c>
+      <c r="F28" s="2">
+        <v>0.67</v>
+      </c>
+      <c r="G28" s="2">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="4"/>
+        <v>7.1105599999999995</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="5"/>
+        <v>5.7694400000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C29">
+        <v>0.6</v>
+      </c>
+      <c r="D29">
+        <v>5.77</v>
+      </c>
+      <c r="E29">
+        <v>0.4</v>
+      </c>
+      <c r="F29" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="G29" s="2">
+        <v>1.32</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="4"/>
+        <v>7.7987200000000003</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="5"/>
+        <v>6.9512799999999997</v>
+      </c>
+    </row>
+    <row r="30" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C30">
+        <v>0.8</v>
+      </c>
+      <c r="D30">
+        <v>7.59</v>
+      </c>
+      <c r="E30">
+        <v>0.2</v>
+      </c>
+      <c r="F30" s="2">
+        <v>0.64</v>
+      </c>
+      <c r="G30" s="2">
+        <v>0.71</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="4"/>
+        <v>8.4684799999999996</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="5"/>
+        <v>8.1015200000000007</v>
+      </c>
+    </row>
+    <row r="31" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>8.98</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31" t="s">
+        <v>29</v>
+      </c>
+      <c r="G31" t="s">
+        <v>29</v>
+      </c>
+      <c r="I31">
+        <f>($D$31-D31)*0.632+D31</f>
+        <v>8.98</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="5"/>
+        <v>8.98</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="C13:J13"/>
+    <mergeCell ref="C24:J24"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O55"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="K29" sqref="K29:L33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="9.5" customWidth="1"/>
-    <col min="8" max="8" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
@@ -4485,7 +6948,7 @@
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F12" t="s">
         <v>20</v>
       </c>
@@ -4714,7 +7177,7 @@
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <v>0.3</v>
       </c>
@@ -4963,7 +7426,7 @@
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
         <v>0.65</v>
       </c>
@@ -5171,7 +7634,7 @@
         <v>4.2709700000000002</v>
       </c>
     </row>
-    <row r="41" spans="6:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F41" t="s">
         <v>16</v>
       </c>
@@ -5219,19 +7682,19 @@
     <row r="50" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F50" s="1"/>
     </row>
-    <row r="51" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F51" s="1"/>
     </row>
-    <row r="52" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F52" s="1"/>
     </row>
-    <row r="53" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F53" s="1"/>
     </row>
-    <row r="54" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F54" s="1"/>
     </row>
-    <row r="55" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F55" s="1"/>
     </row>
   </sheetData>
@@ -5250,17 +7713,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="X4" sqref="X4"/>
+    <sheetView tabSelected="1" topLeftCell="P4" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="Y15" sqref="Y15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:10" x14ac:dyDescent="0.2">
@@ -5275,7 +7739,7 @@
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>27</v>
       </c>
@@ -5303,24 +7767,25 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>7.9000000000000001E-2</v>
+        <f>346/1000</f>
+        <v>0.34599999999999997</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" s="2">
-        <v>0</v>
+        <v>0.79</v>
       </c>
       <c r="G4" s="2">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="I4">
         <f>($D$9-D4)*0.632+D4</f>
-        <v>5.7233919999999996</v>
+        <v>5.8216479999999997</v>
       </c>
       <c r="J4">
         <f>$D$9 - ($D$9-D4)*0.632</f>
-        <v>3.3656079999999999</v>
+        <v>3.5343520000000002</v>
       </c>
     </row>
     <row r="5" spans="3:10" x14ac:dyDescent="0.2">
@@ -5328,24 +7793,24 @@
         <v>0.2</v>
       </c>
       <c r="D5">
-        <v>2.65</v>
+        <v>2.79</v>
       </c>
       <c r="E5">
         <v>0.8</v>
       </c>
       <c r="F5" s="2">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="G5" s="2">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="I5">
         <f t="shared" ref="I5:I8" si="0">($D$9-D5)*0.632+D5</f>
-        <v>6.6695200000000003</v>
+        <v>6.7210400000000003</v>
       </c>
       <c r="J5">
         <f t="shared" ref="J5:J9" si="1">$D$9 - ($D$9-D5)*0.632</f>
-        <v>4.9904799999999998</v>
+        <v>5.0789600000000004</v>
       </c>
     </row>
     <row r="6" spans="3:10" x14ac:dyDescent="0.2">
@@ -5353,24 +7818,24 @@
         <v>0.4</v>
       </c>
       <c r="D6">
-        <v>4.5199999999999996</v>
+        <v>4.54</v>
       </c>
       <c r="E6">
         <v>0.6</v>
       </c>
       <c r="F6" s="2">
-        <v>0</v>
+        <v>0.66</v>
       </c>
       <c r="G6" s="2">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="I6">
         <f t="shared" si="0"/>
-        <v>7.3576800000000002</v>
+        <v>7.3650400000000005</v>
       </c>
       <c r="J6">
         <f t="shared" si="1"/>
-        <v>6.1723199999999991</v>
+        <v>6.1849600000000002</v>
       </c>
     </row>
     <row r="7" spans="3:10" x14ac:dyDescent="0.2">
@@ -5378,24 +7843,24 @@
         <v>0.6</v>
       </c>
       <c r="D7">
-        <v>5.78</v>
+        <v>5.67</v>
       </c>
       <c r="E7">
         <v>0.4</v>
       </c>
       <c r="F7" s="2">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="G7" s="2">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="I7">
         <f t="shared" si="0"/>
-        <v>7.8213600000000003</v>
+        <v>7.7808799999999998</v>
       </c>
       <c r="J7">
         <f t="shared" si="1"/>
-        <v>6.9686400000000006</v>
+        <v>6.8991199999999999</v>
       </c>
     </row>
     <row r="8" spans="3:10" x14ac:dyDescent="0.2">
@@ -5403,24 +7868,24 @@
         <v>0.8</v>
       </c>
       <c r="D8">
-        <v>7.22</v>
+        <v>7.27</v>
       </c>
       <c r="E8">
         <v>0.2</v>
       </c>
       <c r="F8" s="2">
-        <v>0</v>
+        <v>0.66</v>
       </c>
       <c r="G8" s="2">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="I8">
         <f t="shared" si="0"/>
-        <v>8.3512799999999991</v>
+        <v>8.3696799999999989</v>
       </c>
       <c r="J8">
         <f t="shared" si="1"/>
-        <v>7.8787199999999995</v>
+        <v>7.9103199999999996</v>
       </c>
     </row>
     <row r="9" spans="3:10" x14ac:dyDescent="0.2">
@@ -5460,7 +7925,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>27</v>
       </c>
@@ -5488,24 +7953,24 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>7.9000000000000001E-2</v>
+        <v>0.17899999999999999</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15" s="2">
-        <v>0</v>
+        <v>0.63</v>
       </c>
       <c r="G15" s="2">
-        <v>0</v>
+        <v>4.55</v>
       </c>
       <c r="I15">
         <f t="shared" ref="I15:I20" si="2">($D$20-D15)*0.632+D15</f>
-        <v>5.7802719999999992</v>
+        <v>5.7412320000000001</v>
       </c>
       <c r="J15">
         <f t="shared" ref="J15:J20" si="3">$D$20 - ($D$20-D15)*0.632</f>
-        <v>3.3987280000000002</v>
+        <v>3.4177680000000006</v>
       </c>
     </row>
     <row r="16" spans="3:10" x14ac:dyDescent="0.2">
@@ -5513,24 +7978,24 @@
         <v>0.2</v>
       </c>
       <c r="D16">
-        <v>2.09</v>
+        <v>2.04</v>
       </c>
       <c r="E16">
         <v>0.8</v>
       </c>
       <c r="F16" s="2">
-        <v>0</v>
+        <v>0.69</v>
       </c>
       <c r="G16" s="2">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="I16">
         <f t="shared" si="2"/>
-        <v>6.5203199999999999</v>
+        <v>6.4260800000000007</v>
       </c>
       <c r="J16">
         <f t="shared" si="3"/>
-        <v>4.6696799999999996</v>
+        <v>4.5939199999999998</v>
       </c>
     </row>
     <row r="17" spans="3:10" x14ac:dyDescent="0.2">
@@ -5538,24 +8003,24 @@
         <v>0.4</v>
       </c>
       <c r="D17">
-        <v>3.61</v>
+        <v>3.53</v>
       </c>
       <c r="E17">
         <v>0.6</v>
       </c>
       <c r="F17" s="2">
-        <v>0</v>
+        <v>0.63</v>
       </c>
       <c r="G17" s="2">
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="I17">
         <f t="shared" si="2"/>
-        <v>7.0796799999999998</v>
+        <v>6.974400000000001</v>
       </c>
       <c r="J17">
         <f t="shared" si="3"/>
-        <v>5.6303199999999993</v>
+        <v>5.5355999999999996</v>
       </c>
     </row>
     <row r="18" spans="3:10" x14ac:dyDescent="0.2">
@@ -5563,24 +8028,24 @@
         <v>0.6</v>
       </c>
       <c r="D18">
-        <v>5.52</v>
+        <v>5.4</v>
       </c>
       <c r="E18">
         <v>0.4</v>
       </c>
       <c r="F18" s="2">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="G18" s="2">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="I18">
         <f t="shared" si="2"/>
-        <v>7.7825600000000001</v>
+        <v>7.6625600000000009</v>
       </c>
       <c r="J18">
         <f t="shared" si="3"/>
-        <v>6.8374399999999991</v>
+        <v>6.7174399999999999</v>
       </c>
     </row>
     <row r="19" spans="3:10" x14ac:dyDescent="0.2">
@@ -5594,18 +8059,18 @@
         <v>0.2</v>
       </c>
       <c r="F19" s="2">
-        <v>0</v>
+        <v>0.62</v>
       </c>
       <c r="G19" s="2">
-        <v>0</v>
+        <v>0.79500000000000004</v>
       </c>
       <c r="I19">
         <f>($D$20-D19)*0.632+D19</f>
-        <v>8.4375999999999998</v>
+        <v>8.3617600000000003</v>
       </c>
       <c r="J19">
         <f t="shared" si="3"/>
-        <v>7.9623999999999997</v>
+        <v>7.9182399999999999</v>
       </c>
     </row>
     <row r="20" spans="3:10" x14ac:dyDescent="0.2">
@@ -5613,7 +8078,7 @@
         <v>1</v>
       </c>
       <c r="D20">
-        <v>9.1</v>
+        <v>8.98</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -5626,11 +8091,11 @@
       </c>
       <c r="I20">
         <f t="shared" si="2"/>
-        <v>9.1</v>
+        <v>8.98</v>
       </c>
       <c r="J20">
         <f t="shared" si="3"/>
-        <v>9.1</v>
+        <v>8.98</v>
       </c>
     </row>
     <row r="24" spans="3:10" x14ac:dyDescent="0.2">
@@ -5645,7 +8110,7 @@
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
     </row>
-    <row r="25" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>27</v>
       </c>
@@ -5673,24 +8138,24 @@
         <v>0</v>
       </c>
       <c r="D26">
-        <v>0.106</v>
+        <v>0.313</v>
       </c>
       <c r="E26">
         <v>1</v>
       </c>
       <c r="F26" s="2">
-        <v>0</v>
+        <v>0.72</v>
       </c>
       <c r="G26" s="2">
-        <v>0</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="I26">
-        <f t="shared" ref="I26:I31" si="4">($D$20-D26)*0.632+D26</f>
-        <v>5.7902079999999998</v>
+        <f t="shared" ref="I26:I30" si="4">($D$31-D26)*0.632+D26</f>
+        <v>5.7905439999999997</v>
       </c>
       <c r="J26">
-        <f t="shared" ref="J26:J31" si="5">$D$20 - ($D$20-D26)*0.632</f>
-        <v>3.4157919999999997</v>
+        <f t="shared" ref="J26:J30" si="5">$D$20 - ($D$20-D26)*0.632</f>
+        <v>3.5024560000000005</v>
       </c>
     </row>
     <row r="27" spans="3:10" x14ac:dyDescent="0.2">
@@ -5698,24 +8163,24 @@
         <v>0.2</v>
       </c>
       <c r="D27">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="E27">
         <v>0.8</v>
       </c>
       <c r="F27" s="2">
-        <v>0</v>
+        <v>0.65500000000000003</v>
       </c>
       <c r="G27" s="2">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="I27">
         <f t="shared" si="4"/>
-        <v>6.5092800000000004</v>
+        <v>6.4260800000000007</v>
       </c>
       <c r="J27">
         <f t="shared" si="5"/>
-        <v>4.6507199999999997</v>
+        <v>4.5939199999999998</v>
       </c>
     </row>
     <row r="28" spans="3:10" x14ac:dyDescent="0.2">
@@ -5723,24 +8188,24 @@
         <v>0.4</v>
       </c>
       <c r="D28">
-        <v>3.57</v>
+        <v>3.9</v>
       </c>
       <c r="E28">
         <v>0.6</v>
       </c>
       <c r="F28" s="2">
-        <v>0</v>
+        <v>0.78</v>
       </c>
       <c r="G28" s="2">
-        <v>0</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="I28">
         <f t="shared" si="4"/>
-        <v>7.0649599999999992</v>
+        <v>7.1105599999999995</v>
       </c>
       <c r="J28">
         <f t="shared" si="5"/>
-        <v>5.6050399999999998</v>
+        <v>5.7694400000000003</v>
       </c>
     </row>
     <row r="29" spans="3:10" x14ac:dyDescent="0.2">
@@ -5748,24 +8213,24 @@
         <v>0.6</v>
       </c>
       <c r="D29">
-        <v>5.48</v>
+        <v>5.77</v>
       </c>
       <c r="E29">
         <v>0.4</v>
       </c>
       <c r="F29" s="2">
-        <v>0</v>
+        <v>0.74</v>
       </c>
       <c r="G29" s="2">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="I29">
         <f t="shared" si="4"/>
-        <v>7.7678399999999996</v>
+        <v>7.7987200000000003</v>
       </c>
       <c r="J29">
         <f t="shared" si="5"/>
-        <v>6.8121600000000004</v>
+        <v>6.9512799999999997</v>
       </c>
     </row>
     <row r="30" spans="3:10" x14ac:dyDescent="0.2">
@@ -5773,24 +8238,24 @@
         <v>0.8</v>
       </c>
       <c r="D30">
-        <v>7.29</v>
+        <v>7.59</v>
       </c>
       <c r="E30">
         <v>0.2</v>
       </c>
       <c r="F30" s="2">
-        <v>0</v>
+        <v>0.64</v>
       </c>
       <c r="G30" s="2">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="I30">
         <f t="shared" si="4"/>
-        <v>8.4339200000000005</v>
+        <v>8.4684799999999996</v>
       </c>
       <c r="J30">
         <f t="shared" si="5"/>
-        <v>7.95608</v>
+        <v>8.1015200000000007</v>
       </c>
     </row>
     <row r="31" spans="3:10" x14ac:dyDescent="0.2">
@@ -5798,7 +8263,7 @@
         <v>1</v>
       </c>
       <c r="D31">
-        <v>8.94</v>
+        <v>8.98</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -5810,12 +8275,12 @@
         <v>29</v>
       </c>
       <c r="I31">
-        <f t="shared" si="4"/>
-        <v>9.0411199999999994</v>
+        <f>($D$31-D31)*0.632+D31</f>
+        <v>8.98</v>
       </c>
       <c r="J31">
-        <f t="shared" si="5"/>
-        <v>8.9988799999999998</v>
+        <f t="shared" ref="J26:J31" si="6">$D$20 - ($D$20-D31)*0.632</f>
+        <v>8.98</v>
       </c>
     </row>
   </sheetData>
@@ -5832,7 +8297,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:G31"/>
   <sheetViews>
@@ -5840,10 +8305,10 @@
       <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:7" x14ac:dyDescent="0.2">
